--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T14:34:38+00:00</t>
+    <t>2025-08-12T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:19:17+00:00</t>
+    <t>2025-08-12T15:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:54:36+00:00</t>
+    <t>2025-08-12T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:52:42+00:00</t>
+    <t>2025-08-13T14:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:10:49+00:00</t>
+    <t>2025-08-13T14:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:38:26+00:00</t>
+    <t>2025-08-13T16:08:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:08:05+00:00</t>
+    <t>2025-08-13T16:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:43:50+00:00</t>
+    <t>2025-08-14T09:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T09:57:22+00:00</t>
+    <t>2025-08-14T13:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T13:55:20+00:00</t>
+    <t>2025-08-14T14:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:15:22+00:00</t>
+    <t>2025-08-18T13:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:25:21+00:00</t>
+    <t>2025-08-18T17:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T17:36:35+00:00</t>
+    <t>2025-08-19T07:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:49:07+00:00</t>
+    <t>2025-08-19T08:39:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T08:39:15+00:00</t>
+    <t>2025-08-19T16:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T16:40:37+00:00</t>
+    <t>2025-08-20T14:11:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T14:11:18+00:00</t>
+    <t>2025-08-20T15:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T15:16:03+00:00</t>
+    <t>2025-08-21T07:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:11:23+00:00</t>
+    <t>2025-08-21T07:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:13:53+00:00</t>
+    <t>2025-08-21T07:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:15:25+00:00</t>
+    <t>2025-08-21T07:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:17:21+00:00</t>
+    <t>2025-08-21T07:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:22:00+00:00</t>
+    <t>2025-08-21T07:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
+++ b/VoitureBalaisDecisions/ig/CodeSystem-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:24:06+00:00</t>
+    <t>2025-08-21T07:54:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
